--- a/Test Case - 1/TC1Results_I.xlsx
+++ b/Test Case - 1/TC1Results_I.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1176752\Documents\VSCode\Projects\LPSD\LPSD\Test Case - 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB7973C-4119-4857-A48C-EB8B7BF1B7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A03F1A3-0E72-467C-8884-5691DAF56A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reductive" sheetId="1" r:id="rId1"/>
@@ -1213,10 +1213,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -9338,7 +9338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
@@ -11363,12 +11363,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
@@ -11376,6 +11370,12 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="R3 M4:M25 R26:R47">
     <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
@@ -11454,8 +11454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11470,16 +11470,16 @@
       <c r="A1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="19" t="s">
         <v>49</v>
       </c>
@@ -11510,7 +11510,7 @@
       <c r="S1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>78</v>
       </c>
     </row>
@@ -11546,7 +11546,7 @@
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
-      <c r="T2" s="22"/>
+      <c r="T2" s="21"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -12013,10 +12013,10 @@
         <v>5.2031851927965702</v>
       </c>
       <c r="K10" s="2">
-        <v>4.7255392538026904</v>
+        <v>5.2031851927965702</v>
       </c>
       <c r="L10" s="2">
-        <v>2.5473561617314502</v>
+        <v>2.8048366862753902</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>68</v>
@@ -12039,7 +12039,7 @@
       </c>
       <c r="S10" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="b">
         <f t="shared" si="2"/>
@@ -12081,10 +12081,10 @@
         <v>6.5389274345500397</v>
       </c>
       <c r="K11" s="2">
-        <v>5.8852539501936896</v>
+        <v>6.5989391226003402</v>
       </c>
       <c r="L11" s="2">
-        <v>3.686836700807</v>
+        <v>4.1339271252336296</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>67</v>
@@ -12107,7 +12107,7 @@
       </c>
       <c r="S11" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="b">
         <f t="shared" si="2"/>
@@ -12149,10 +12149,10 @@
         <v>5.2031851927965702</v>
       </c>
       <c r="K12" s="2">
-        <v>4.7255392538026904</v>
+        <v>5.2031851927965702</v>
       </c>
       <c r="L12" s="2">
-        <v>2.5473561617314502</v>
+        <v>2.8048366862753902</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>68</v>
@@ -12175,7 +12175,7 @@
       </c>
       <c r="S12" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="b">
         <f t="shared" si="2"/>
@@ -12217,10 +12217,10 @@
         <v>5.2018745382570302</v>
       </c>
       <c r="K13" s="2">
-        <v>4.7479965883357496</v>
+        <v>5.22945719061173</v>
       </c>
       <c r="L13" s="2">
-        <v>2.5601069228664399</v>
+        <v>2.8197091778474701</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>68</v>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="S13" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="b">
         <f t="shared" si="2"/>
@@ -12409,10 +12409,10 @@
         <v>5.2009383716412003</v>
       </c>
       <c r="K16" s="2">
-        <v>4.7479965883357496</v>
+        <v>5.2285133096524401</v>
       </c>
       <c r="L16" s="2">
-        <v>2.5601069228664399</v>
+        <v>2.8192002397862699</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>68</v>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="S16" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="b">
         <f t="shared" si="2"/>
@@ -12477,10 +12477,10 @@
         <v>6.5375450723265498</v>
       </c>
       <c r="K17" s="2">
-        <v>5.8852539501936896</v>
+        <v>6.5975399762486298</v>
       </c>
       <c r="L17" s="2">
-        <v>3.686836700807</v>
+        <v>4.1330506253981198</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>67</v>
@@ -12503,7 +12503,7 @@
       </c>
       <c r="S17" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="b">
         <f t="shared" si="2"/>
@@ -12545,10 +12545,10 @@
         <v>5.2009383716412003</v>
       </c>
       <c r="K18" s="2">
-        <v>4.7479965883357496</v>
+        <v>5.2285133096524401</v>
       </c>
       <c r="L18" s="2">
-        <v>2.5601069228664399</v>
+        <v>2.8192002397862699</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>68</v>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="S18" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="b">
         <f t="shared" si="2"/>
@@ -12737,10 +12737,10 @@
         <v>5.2018745270843203</v>
       </c>
       <c r="K21" s="2">
-        <v>4.7479965883357496</v>
+        <v>5.2294571793469604</v>
       </c>
       <c r="L21" s="2">
-        <v>2.5601069228664399</v>
+        <v>2.8197091717735399</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>68</v>
@@ -12763,7 +12763,7 @@
       </c>
       <c r="S21" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="b">
         <f t="shared" si="2"/>
@@ -12805,10 +12805,10 @@
         <v>6.5389274180522001</v>
       </c>
       <c r="K22" s="2">
-        <v>5.8852539501936896</v>
+        <v>6.5989391059021898</v>
       </c>
       <c r="L22" s="2">
-        <v>3.686836700807</v>
+        <v>4.1339271147730203</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>67</v>
@@ -12831,7 +12831,7 @@
       </c>
       <c r="S22" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="b">
         <f t="shared" si="2"/>
@@ -12873,10 +12873,10 @@
         <v>5.2018745270843203</v>
       </c>
       <c r="K23" s="2">
-        <v>4.7479965883357496</v>
+        <v>5.2294571793469604</v>
       </c>
       <c r="L23" s="2">
-        <v>2.5601069228664399</v>
+        <v>2.8197091717735399</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>68</v>
@@ -12899,7 +12899,7 @@
       </c>
       <c r="S23" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="b">
         <f t="shared" si="2"/>
@@ -13251,10 +13251,10 @@
         <v>7.1008837400538498</v>
       </c>
       <c r="K29" s="2">
-        <v>5.9459557405132299</v>
+        <v>7.1226756462811602</v>
       </c>
       <c r="L29" s="2">
-        <v>3.2653711465233402</v>
+        <v>3.9115964794254401</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>68</v>
@@ -13277,7 +13277,7 @@
       </c>
       <c r="S29" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="b">
         <f t="shared" si="2"/>
@@ -13319,10 +13319,10 @@
         <v>10.877590909774799</v>
       </c>
       <c r="K30" s="2">
-        <v>8.8551895177587507</v>
+        <v>10.934154886446199</v>
       </c>
       <c r="L30" s="2">
-        <v>5.6500166530780502</v>
+        <v>6.9764918155464004</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>67</v>
@@ -13345,7 +13345,7 @@
       </c>
       <c r="S30" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="b">
         <f t="shared" si="2"/>
@@ -13387,10 +13387,10 @@
         <v>7.1008837400538498</v>
       </c>
       <c r="K31" s="2">
-        <v>5.9459557405132299</v>
+        <v>7.1226756462811602</v>
       </c>
       <c r="L31" s="2">
-        <v>3.2653711465233402</v>
+        <v>3.9115964794254401</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>68</v>
@@ -13413,7 +13413,7 @@
       </c>
       <c r="S31" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="b">
         <f t="shared" si="2"/>
@@ -13641,10 +13641,10 @@
         <v>7.1008837576776598</v>
       </c>
       <c r="K35" s="2">
-        <v>5.9459557405132299</v>
+        <v>7.1226756639777102</v>
       </c>
       <c r="L35" s="2">
-        <v>3.2653711465233402</v>
+        <v>3.9115964891439399</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>68</v>
@@ -13667,7 +13667,7 @@
       </c>
       <c r="S35" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="b">
         <f t="shared" si="2"/>
@@ -13709,10 +13709,10 @@
         <v>10.877590940851301</v>
       </c>
       <c r="K36" s="2">
-        <v>8.8551895177587507</v>
+        <v>10.934154917711499</v>
       </c>
       <c r="L36" s="2">
-        <v>5.6500166530780502</v>
+        <v>6.9764918354950902</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>67</v>
@@ -13735,7 +13735,7 @@
       </c>
       <c r="S36" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="b">
         <f t="shared" si="2"/>
@@ -13777,10 +13777,10 @@
         <v>7.1008977030658498</v>
       </c>
       <c r="K37" s="2">
-        <v>5.9458560613916998</v>
+        <v>7.1225465300232997</v>
       </c>
       <c r="L37" s="2">
-        <v>3.2653099925015598</v>
+        <v>3.9115178901755598</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>68</v>
@@ -13803,7 +13803,7 @@
       </c>
       <c r="S37" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="b">
         <f t="shared" si="2"/>
@@ -14093,10 +14093,10 @@
         <v>10.877590909774799</v>
       </c>
       <c r="K42" s="2">
-        <v>8.8551895177587507</v>
+        <v>10.934154886446199</v>
       </c>
       <c r="L42" s="2">
-        <v>5.6500166530780502</v>
+        <v>6.9764918155464004</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>67</v>
@@ -14119,7 +14119,7 @@
       </c>
       <c r="S42" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="b">
         <f t="shared" si="2"/>
@@ -14161,10 +14161,10 @@
         <v>7.1008837400538498</v>
       </c>
       <c r="K43" s="2">
-        <v>5.9459557405132299</v>
+        <v>7.1226756462811602</v>
       </c>
       <c r="L43" s="2">
-        <v>3.2653711465233402</v>
+        <v>3.9115964794254401</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>68</v>
@@ -14187,7 +14187,7 @@
       </c>
       <c r="S43" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="b">
         <f t="shared" si="2"/>
@@ -14539,10 +14539,10 @@
         <v>7.1030021707539897</v>
       </c>
       <c r="K49" s="2">
-        <v>5.9307694033804896</v>
+        <v>7.1030022516433702</v>
       </c>
       <c r="L49" s="2">
-        <v>3.2560597961740898</v>
+        <v>3.89962895042376</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>68</v>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="S49" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="b">
         <f t="shared" si="2"/>
@@ -14577,6 +14577,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:M2"/>
@@ -14584,12 +14590,6 @@
     <mergeCell ref="P1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="S3:U49">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
